--- a/branches/StructureDefinition-be-organization-task.xlsx
+++ b/branches/StructureDefinition-be-organization-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:11:04+00:00</t>
+    <t>2024-03-15T09:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-organization-task.xlsx
+++ b/branches/StructureDefinition-be-organization-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:12:22+00:00</t>
+    <t>2024-09-24T14:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -654,10 +654,7 @@
 In most cases, Tasks will have an intent of "order".</t>
   </si>
   <si>
-    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-task-intent</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -854,6 +851,10 @@
   <si>
     <t xml:space="preserve">inv-1
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+be-inv-long-date:date SHALL contain a long date (YYYY-MM-DDThh:mm:ss+zz:zz) {empty() or toString().length()=25}</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1662,7 +1663,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.9375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3913,11 +3914,9 @@
       <c r="X20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Y20" s="2"/>
+      <c r="Z20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>73</v>
@@ -3950,13 +3949,13 @@
         <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>73</v>
@@ -3964,10 +3963,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3993,20 +3992,20 @@
         <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>73</v>
@@ -4030,11 +4029,11 @@
         <v>182</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>73</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -4066,13 +4065,13 @@
         <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>73</v>
@@ -4080,10 +4079,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4109,13 +4108,13 @@
         <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4144,11 +4143,11 @@
         <v>192</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>73</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -4180,13 +4179,13 @@
         <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>73</v>
@@ -4194,10 +4193,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4220,13 +4219,13 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4277,7 +4276,7 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -4295,7 +4294,7 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -4306,10 +4305,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4335,16 +4334,16 @@
         <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>73</v>
@@ -4393,7 +4392,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -4411,10 +4410,10 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>73</v>
@@ -4422,14 +4421,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4451,14 +4450,14 @@
         <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4507,7 +4506,7 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4522,13 +4521,13 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>73</v>
@@ -4536,10 +4535,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4562,17 +4561,17 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4621,7 +4620,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4636,13 +4635,13 @@
         <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>73</v>
@@ -4650,10 +4649,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4676,13 +4675,13 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4733,7 +4732,7 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -4748,13 +4747,13 @@
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>73</v>
@@ -4762,24 +4761,24 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>73</v>
@@ -4788,17 +4787,17 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
@@ -4847,7 +4846,7 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4856,10 +4855,10 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>270</v>
@@ -4902,7 +4901,7 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>275</v>
@@ -4970,7 +4969,7 @@
         <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>95</v>
@@ -6154,7 +6153,7 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>355</v>
@@ -6610,7 +6609,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>374</v>
@@ -6952,7 +6951,7 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>355</v>
@@ -7636,7 +7635,7 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>355</v>

--- a/branches/StructureDefinition-be-organization-task.xlsx
+++ b/branches/StructureDefinition-be-organization-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:40:03+00:00</t>
+    <t>2024-09-24T14:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-organization-task.xlsx
+++ b/branches/StructureDefinition-be-organization-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:41:18+00:00</t>
+    <t>2024-09-24T14:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
